--- a/src/main/resources/excel/TestRunner.xlsx
+++ b/src/main/resources/excel/TestRunner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABC\IdeaProjects\uitesting\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D146E60-886C-439E-98D4-5BA4CB19493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B3DDF-B34E-415D-99F7-51AE7B67741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>TestID</t>
   </si>
@@ -36,49 +36,67 @@
     <t>Execute</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>Dice Login Test</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Verify login functionality on Dice</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>Dice Profile Verification</t>
-  </si>
-  <si>
-    <t>Verify user profile after login</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>Dice Search Functionality</t>
-  </si>
-  <si>
-    <t>Verify job search functionality</t>
+    <t>JiraTicket</t>
+  </si>
+  <si>
+    <t>CBP001</t>
+  </si>
+  <si>
+    <t>CBP Login Test</t>
+  </si>
+  <si>
+    <t>Test CBP login functionality</t>
+  </si>
+  <si>
+    <t>CBP-1234</t>
+  </si>
+  <si>
+    <t>CBP002</t>
+  </si>
+  <si>
+    <t>Create 1-Day Lookout</t>
+  </si>
+  <si>
+    <t>Complete workflow to create 1-day lookout</t>
+  </si>
+  <si>
+    <t>CBP-1235</t>
+  </si>
+  <si>
+    <t>CBP003</t>
+  </si>
+  <si>
+    <t>TECS ID Validation</t>
+  </si>
+  <si>
+    <t>Validate TECS ID generation and capture</t>
+  </si>
+  <si>
+    <t>CBP-1236</t>
+  </si>
+  <si>
+    <t>CBP_PXS_001</t>
+  </si>
+  <si>
+    <t>PxSearch UPAX Event Creation</t>
+  </si>
+  <si>
+    <t>Create UPAX event with existing event using PxSearch for Wood, Anika</t>
+  </si>
+  <si>
+    <t>CBP_PXS_002</t>
+  </si>
+  <si>
+    <t>PxSearch Event Verification</t>
+  </si>
+  <si>
+    <t>Verify subject and delete traveler functionality</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -426,19 +449,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -449,53 +470,81 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
